--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -62,18 +62,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -88,7 +88,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,8 +132,8 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -141,12 +141,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -188,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,20 +438,20 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>43908</v>
       </c>
@@ -482,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>43920</v>
       </c>
@@ -499,7 +502,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>44104</v>
       </c>
@@ -516,7 +519,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>44221</v>
       </c>
@@ -533,7 +536,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>44221</v>
       </c>
@@ -550,7 +553,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>44221</v>
       </c>
@@ -567,7 +570,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>44256</v>
       </c>
@@ -584,7 +587,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>44275</v>
       </c>
@@ -601,7 +604,7 @@
         <v>270000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>44281</v>
       </c>
@@ -618,7 +621,7 @@
         <v>452800000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>44298</v>
       </c>
@@ -635,7 +638,7 @@
         <v>494500000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>44344</v>
       </c>
@@ -652,7 +655,7 @@
         <v>542600000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>44363</v>
       </c>
@@ -669,7 +672,7 @@
         <v>592000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>44364</v>
       </c>
@@ -686,7 +689,7 @@
         <v>610000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>44364</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -706,6 +706,23 @@
         <v>620000000</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>44364</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>640000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -723,9 +724,196 @@
         <v>640000000</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>44400</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>626500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>44400</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>651500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>44417</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>703000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>684500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="E21" s="6">
+        <f>E20+D20</f>
+        <v>704500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E22" s="6">
+        <f>E21+D21</f>
+        <v>719500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>751000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5">
+      <c r="A1" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="E1" s="6">
+        <v>724500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>739500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>749500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="E24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -843,6 +843,23 @@
       </c>
       <c r="E23" s="6">
         <v>751000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>44549</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-11500000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>783500000</v>
       </c>
     </row>
   </sheetData>
